--- a/I1/Completed/ABM-0-I1-Task Assignments.xlsx
+++ b/I1/Completed/ABM-0-I1-Task Assignments.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PSS\PSS\I1\Completed\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="-75" windowWidth="12570" windowHeight="12120" tabRatio="463" activeTab="1"/>
   </bookViews>
@@ -190,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -302,7 +297,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -318,9 +313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office тема">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Оffice">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,9 +353,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Оffice">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Оffice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -621,7 +616,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -746,7 +741,7 @@
         <v>42338</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>33</v>
